--- a/LedLight_Kanda.xlsx
+++ b/LedLight_Kanda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1180" windowWidth="33180" windowHeight="22200" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3020" yWindow="1180" windowWidth="33180" windowHeight="22200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
@@ -5785,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A108" sqref="A1:XFD108"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B97" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B98" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B99" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B101" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B103" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B104" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B105" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -6627,7 +6627,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -6773,8 +6773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>

--- a/LedLight_Kanda.xlsx
+++ b/LedLight_Kanda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1180" windowWidth="33180" windowHeight="22200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2860" yWindow="1180" windowWidth="33180" windowHeight="22200" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
@@ -5785,7 +5785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScale="75" workbookViewId="0">
       <selection sqref="A1:XFD108"/>
     </sheetView>
   </sheetViews>
@@ -6773,7 +6773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
